--- a/data/income_statement/2digits/size/88_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/88_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>88-Social work activities without accommodation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>88-Social work activities without accommodation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,98 +841,113 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>75443.90302</v>
+        <v>78714.81938</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>73572.59567</v>
+        <v>79289.92121000001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>75649.40025000001</v>
+        <v>78773.10201</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>73513.09161</v>
+        <v>74644.67400999999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>73510.45686999999</v>
+        <v>77413.54132999999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>60715.38027</v>
+        <v>64301.98614</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>63083.81214</v>
+        <v>66821.19531</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>82798.19868</v>
+        <v>92447.633</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>134581.71836</v>
+        <v>141927.13145</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>147788.20224</v>
+        <v>160767.23172</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>169711.14758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>183310.18767</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>188879.76</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>72102.24066</v>
+        <v>75149.36654999999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>69424.20648000001</v>
+        <v>74823.00648</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>71754.31075</v>
+        <v>74829.83424000001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>70055.30481999999</v>
+        <v>71178.64378999999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>69613.71193999999</v>
+        <v>73456.00464999999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>56431.59957</v>
+        <v>60014.83456</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>60319.22621</v>
+        <v>63244.30582</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>79588.73967</v>
+        <v>88624.01819</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>126434.69028</v>
+        <v>133486.81794</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>126357.34596</v>
+        <v>139302.63399</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>152376.01092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>164345.9281</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>178802.004</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>474.9226</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>946.81876</v>
+        <v>1055.63811</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>417.03305</v>
@@ -1049,7 +965,7 @@
         <v>315.8879</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>222.48229</v>
+        <v>328.14467</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>3377.96413</v>
@@ -1058,58 +974,68 @@
         <v>16297.04475</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>8768.438169999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10041.18907</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1181.937</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>2866.73976</v>
+        <v>3090.53023</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>3201.57043</v>
+        <v>3411.27662</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>3478.05645</v>
+        <v>3526.23472</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3380.59684</v>
+        <v>3388.84027</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>3446.90266</v>
+        <v>3507.69441</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>4283.7807</v>
+        <v>4287.15158</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2448.69803</v>
+        <v>3261.00159</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2986.97672</v>
+        <v>3495.47014</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>4769.06395</v>
+        <v>5062.34938</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>5133.81153</v>
+        <v>5167.55298</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>8566.698490000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>8923.0705</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>8895.819</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>134.5851</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>92.98151000000001</v>
+        <v>110.56085</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>109.94351</v>
@@ -1118,13 +1044,13 @@
         <v>59.83315</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>7.13414</v>
+        <v>52.58178</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>9.32178</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>77.5403</v>
+        <v>158.54031</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>28.04113</v>
@@ -1133,22 +1059,27 @@
         <v>43.50343</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>89.33391</v>
+        <v>101.63489</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>219.36748</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>13007.518</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>68.60045000000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>88.00436000000001</v>
+        <v>105.5837</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>107.75689</v>
@@ -1163,7 +1094,7 @@
         <v>9.03177</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>76.9658</v>
+        <v>157.96581</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>19.64139</v>
@@ -1172,16 +1103,21 @@
         <v>32.40022</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>80.39455000000001</v>
+        <v>92.69553000000002</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>211.38217</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>12795.025</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>65.98464999999999</v>
@@ -1196,7 +1132,7 @@
         <v>1.29176</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>0.8677999999999999</v>
+        <v>0.89324</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>0.29001</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>7.84793</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>8.053000000000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1235,7 +1176,7 @@
         <v>32.41199</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>0</v>
+        <v>45.4222</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>0</v>
@@ -1255,95 +1196,110 @@
       <c r="M12" s="48" t="n">
         <v>0.13738</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>204.44</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>75309.31792</v>
+        <v>78580.23428</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>73479.61416</v>
+        <v>79179.36036000001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>75539.45673999999</v>
+        <v>78663.15850000001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>73453.25846</v>
+        <v>74584.84086</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>73503.32272999999</v>
+        <v>77360.95955</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>60706.05849</v>
+        <v>64292.66436</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>63006.27184</v>
+        <v>66662.655</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>82770.15755</v>
+        <v>92419.59186999999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>134538.21493</v>
+        <v>141883.62802</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>147698.86833</v>
+        <v>160665.59683</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>169491.7801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>183090.82019</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>175872.242</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>48176.4191</v>
+        <v>49816.17667</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>49378.24235</v>
+        <v>52510.96916</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>52537.14365</v>
+        <v>55562.05605</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>52588.08143999999</v>
+        <v>53682.54225999999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>52518.13888000001</v>
+        <v>54704.38447</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>40045.10718</v>
+        <v>41666.17748000001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>43459.75283</v>
+        <v>44433.08139</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>60315.85921</v>
+        <v>69064.32394</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>105283.72957</v>
+        <v>111245.30907</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>110080.25837</v>
+        <v>112522.22755</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>128208.04392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>139316.83484</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>131908.126</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>318.81302</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>679.27337</v>
+        <v>716.09266</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>1502.52479</v>
@@ -1352,7 +1308,7 @@
         <v>867.6553699999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1046.75709</v>
+        <v>1445.92196</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>1711.52186</v>
@@ -1361,31 +1317,36 @@
         <v>936.3025699999999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1732.25423</v>
+        <v>8625.38283</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2457.57358</v>
+        <v>3449.59969</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>4789.60377</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>623.87037</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>913.43236</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3402.583</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>5953.66986</v>
+        <v>6202.419100000001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>5819.13447</v>
+        <v>6499.26884</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>4391.55118</v>
+        <v>5319.83345</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>3216.21</v>
@@ -1394,70 +1355,80 @@
         <v>7284.08729</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2105.82515</v>
+        <v>2531.93566</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>5650.48753</v>
+        <v>5680.134160000001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>7718.579640000001</v>
+        <v>8237.212960000001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>36062.19268</v>
+        <v>38930.07131</v>
       </c>
       <c r="L16" s="48" t="n">
         <v>20695.3199</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>22062.90034</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>23359.62202</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>24757.972</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>41739.30161</v>
+        <v>43110.50796</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>42711.38224</v>
+        <v>45127.15539</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>46600.40268</v>
+        <v>48697.03281</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>48438.04967</v>
+        <v>49532.51049</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>44149.42289</v>
+        <v>45936.50361</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>35883.50962</v>
+        <v>37078.46941000001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>36612.84939</v>
+        <v>37547.76013</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>50625.54223000001</v>
+        <v>51962.24504</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>65880.5644</v>
+        <v>67922.64086</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>83550.2821</v>
+        <v>85606.77855999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>105139.88594</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>114224.9042</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>102930.071</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>164.63461</v>
+        <v>184.43659</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>168.45227</v>
@@ -1475,103 +1446,118 @@
         <v>344.25055</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>260.11334</v>
+        <v>268.88453</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>239.48311</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>883.39891</v>
+        <v>942.99721</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1045.0526</v>
+        <v>1430.52532</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>381.38727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>818.87626</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>817.5</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>27132.89882</v>
+        <v>28764.05761</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>24101.37181</v>
+        <v>26668.3912</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>23002.31309</v>
+        <v>23101.10245</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>20865.17702</v>
+        <v>20902.2986</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>20985.18385</v>
+        <v>22656.57508</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>20660.95131</v>
+        <v>22626.48688</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>19546.51901</v>
+        <v>22229.57361</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>22454.29834</v>
+        <v>23355.26793</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>29254.48536</v>
+        <v>30638.31895</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>37618.60996</v>
+        <v>48143.36928</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>41283.73618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>43773.98535</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>43964.116</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>32866.48227</v>
+        <v>34576.7144</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>30556.22149</v>
+        <v>32886.10174000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>31460.72673</v>
+        <v>32763.50171</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>33185.88288</v>
+        <v>34086.54858</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>30328.34614</v>
+        <v>33282.41768999999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>28698.33034</v>
+        <v>30803.44556</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>27383.55782</v>
+        <v>29260.15119</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>37223.16666</v>
+        <v>38124.76178</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>45718.43654</v>
+        <v>47363.4687</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>63053.80018999999</v>
+        <v>73714.43626999999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>68874.58769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>74465.96446</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>67267.007</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>20.96237</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>46.598</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1999.63451</v>
+        <v>2019.01738</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1673.667</v>
+        <v>1720.11563</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1748.48127</v>
+        <v>1856.22346</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1980.87629</v>
+        <v>2025.11104</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1737.05798</v>
+        <v>1760.09098</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>1382.80121</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1132.92951</v>
+        <v>1149.08672</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1718.26138</v>
+        <v>1741.33975</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>3105.71606</v>
+        <v>3127.16681</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>6740.56668</v>
+        <v>6851.97637</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4895.94262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5084.15015</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4141.068</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>30845.88539</v>
+        <v>32536.73465</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>28714.45975</v>
+        <v>30997.89137</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>29674.39405</v>
+        <v>30869.42684</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>31205.00659</v>
+        <v>32061.43754</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>28399.8547</v>
+        <v>31330.89325</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>27301.37447</v>
+        <v>29406.48969</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>26250.62831</v>
+        <v>28111.06447</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>35352.51005</v>
+        <v>36231.0268</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>42503.05682</v>
+        <v>44126.63823</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>56313.23351</v>
+        <v>66862.4599</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>63978.64507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>69381.81431</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>63079.341</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-5733.583449999999</v>
+        <v>-5812.65679</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-6454.849679999999</v>
+        <v>-6217.71054</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-8458.413640000001</v>
+        <v>-9662.39926</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-12320.70586</v>
+        <v>-13184.24998</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-9343.16229</v>
+        <v>-10625.84261</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-8037.37903</v>
+        <v>-8176.958680000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-7837.038810000001</v>
+        <v>-7030.57758</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-14768.86832</v>
+        <v>-14769.49385</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-16463.95118</v>
+        <v>-16725.14975</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-25435.19023</v>
+        <v>-25571.06699</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-27590.85151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-30691.97911</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-23302.891</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>730.12974</v>
+        <v>1983.10591</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>629.3580899999999</v>
+        <v>1527.63645</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>890.38644</v>
+        <v>1928.28785</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>746.51986</v>
+        <v>1646.42168</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1037.96779</v>
+        <v>1884.09146</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>792.08182</v>
+        <v>1561.79332</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>673.2679800000001</v>
+        <v>1519.26696</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>901.4177200000001</v>
+        <v>1906.21086</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1167.29872</v>
+        <v>2242.24929</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2377.92686</v>
+        <v>3519.73091</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2915.37093</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4053.1803</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3590.555</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>179.18637</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>194.48999</v>
+        <v>619.4342800000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>111.02893</v>
+        <v>443.0980300000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>105.4854</v>
+        <v>370.49954</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>168.75474</v>
+        <v>509.82305</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>322.67281</v>
+        <v>588.95584</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>128.31755</v>
+        <v>391.6726</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>125.33647</v>
+        <v>485.34456</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>111.78872</v>
+        <v>550.12306</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>138.41867</v>
+        <v>593.5198</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>324.88468</v>
+        <v>896.70632</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>542.1306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1202.04983</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1364.957</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.5038899999999999</v>
@@ -1918,26 +1944,31 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>6.023</v>
+        <v>6.98272</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>14.41321</v>
+        <v>16.17821</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>0</v>
+        <v>0.17768</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>36.905</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>12.323</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>17.93137</v>
@@ -1976,46 +2012,51 @@
         <v>8.690860000000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>101.95859</v>
+        <v>102.08394</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>18.45728</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>34.55846</v>
+        <v>35.6072</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3.32937</v>
+        <v>4.179819999999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>4.2399</v>
+        <v>5.01522</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>7.367760000000001</v>
+        <v>8.63031</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>42.01958</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>46.76559</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>103.64</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>25.36942</v>
+        <v>25.7538</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>37.11867</v>
+        <v>50.59818</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>82.46147999999999</v>
+        <v>148.82331</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>27.62092</v>
+        <v>39.78049</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>154.2811</v>
+        <v>277.22594</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>37.54781000000001</v>
@@ -2024,22 +2065,27 @@
         <v>136.66947</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>135.65248</v>
+        <v>244.89678</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>178.7701</v>
+        <v>363.35478</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1224.92057</v>
+        <v>1250.91543</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>323.56206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>323.71376</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>489.139</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>12.67304</v>
@@ -2093,10 +2144,10 @@
         <v>59.42832</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>50.35</v>
+        <v>54.84121</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0</v>
+        <v>498.408</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>4.21547</v>
@@ -2113,98 +2164,113 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>293.95266</v>
+        <v>1120.64044</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>169.58894</v>
+        <v>722.3186900000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>679.8831</v>
+        <v>1384.64354</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>482.02502</v>
+        <v>1028.69896</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>408.70529</v>
+        <v>860.8068499999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>570.6818499999999</v>
+        <v>578.6303</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>372.48811</v>
+        <v>857.43026</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>574.36415</v>
+        <v>1030.7282</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>824.92537</v>
+        <v>1259.41481</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>784.97072</v>
+        <v>1327.69572</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2007.65869</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2480.65112</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1620.496</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>254.84367</v>
+        <v>264.88154</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>211.99168</v>
+        <v>259.42695</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>512.45176</v>
+        <v>533.5367</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>306.1279699999999</v>
+        <v>339.79024</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>223.37425</v>
+        <v>371.84935</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>254.49162</v>
+        <v>283.52533</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>293.55952</v>
+        <v>389.56089</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>354.93706</v>
+        <v>527.6120900000001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>340.98716</v>
+        <v>628.22175</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1057.68541</v>
+        <v>1312.84177</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>471.80613</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>613.47601</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>542.428</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>11.21869</v>
+        <v>18.36361</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>11.75897</v>
+        <v>40.12143</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>8.90715</v>
+        <v>15.51423</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>6.04335</v>
@@ -2222,19 +2288,24 @@
         <v>4.7565</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>3.97963</v>
+        <v>4.26082</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>10.88039</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>13.13929</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>19.26163</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>12.275</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3.138</v>
@@ -2246,7 +2317,7 @@
         <v>30.756</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>22.84438</v>
+        <v>24.18178</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>11.86546</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>33.31373000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.01257</v>
@@ -2282,7 +2358,7 @@
         <v>0.0325</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>8.37444</v>
+        <v>8.49621</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>2.81513</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>18.09111</v>
+        <v>20.98401</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>90.48163000000001</v>
+        <v>109.55444</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>17.07068</v>
+        <v>31.42006</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>32.26816</v>
+        <v>64.59303</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>97.49283</v>
+        <v>245.96793</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>14.14358</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>24.1586</v>
+        <v>27.56646</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>116.50695</v>
+        <v>194.40024</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>98.16799</v>
+        <v>288.81666</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>899.91234</v>
+        <v>1045.98534</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>238.75768</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>241.66375</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>213.01</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>3.69424</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>10.50144</v>
@@ -2425,20 +2516,25 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>211.88186</v>
+        <v>211.88191</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>102.91648</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>447.3374700000001</v>
+        <v>447.3441800000001</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>242.15695</v>
@@ -2447,112 +2543,127 @@
         <v>101.00791</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>223.73044</v>
+        <v>252.76415</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>246.6564</v>
+        <v>339.24991</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>42.20313</v>
+        <v>136.98487</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>182.74868</v>
+        <v>279.05341</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>131.53126</v>
+        <v>240.61462</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>182.90119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>315.54266</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>317.143</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>629.25949</v>
+        <v>697.1236700000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>457.88345</v>
+        <v>848.91128</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>376.16869</v>
+        <v>526.09021</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>512.49941</v>
+        <v>550.6795100000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>382.70873</v>
+        <v>530.01012</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>485.99848</v>
+        <v>543.3120200000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>557.17085</v>
+        <v>1086.17924</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>697.1986800000001</v>
+        <v>726.7533400000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>881.3656500000001</v>
+        <v>1376.59272</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1196.20425</v>
+        <v>2749.53064</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1143.36463</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2388.4343</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4655.796</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>552.2628100000001</v>
+        <v>620.12699</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>391.52251</v>
+        <v>672.11927</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>321.94696</v>
+        <v>471.86848</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>423.31597</v>
+        <v>461.49607</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>320.07285</v>
+        <v>371.84442</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>369.60357</v>
+        <v>412.27061</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>477.36345</v>
+        <v>997.0157399999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>609.4618400000001</v>
+        <v>634.76638</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>855.52715</v>
+        <v>1320.71982</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1135.36508</v>
+        <v>2688.69147</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1121.46729</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2366.53696</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4471.127</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>76.99668</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>66.36094</v>
+        <v>176.79201</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>54.22172999999999</v>
@@ -2561,19 +2672,19 @@
         <v>89.18344</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>62.63588000000001</v>
+        <v>158.1657</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>116.39491</v>
+        <v>131.04141</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>79.8074</v>
+        <v>89.1635</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>87.73684</v>
+        <v>91.98696000000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>25.8385</v>
+        <v>55.8729</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>60.83917</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>21.89734</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>184.669</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-5887.556869999999</v>
+        <v>-4791.55609</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-6495.36672</v>
+        <v>-5798.412319999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-8456.647650000001</v>
+        <v>-8793.73832</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-12392.81338</v>
+        <v>-12428.29805</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-8911.277480000001</v>
+        <v>-9643.610619999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-7985.787310000001</v>
+        <v>-7442.00271</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-8014.501200000001</v>
+        <v>-6987.05075</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-14919.58634</v>
+        <v>-14117.64842</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-16519.00527</v>
+        <v>-16487.71493</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-25311.15303</v>
+        <v>-26113.70849</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-26290.65134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-29640.70912</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-24910.56</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>830.72371</v>
+        <v>849.8198100000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1137.91013</v>
+        <v>1185.46882</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1199.85724</v>
+        <v>1300.51212</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1159.72374</v>
+        <v>1199.08754</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>868.3628400000001</v>
+        <v>889.9113500000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>885.9426100000001</v>
+        <v>890.6926900000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>712.68156</v>
+        <v>820.02085</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1390.8938</v>
+        <v>1444.15527</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1910.04008</v>
+        <v>2121.76241</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2309.44553</v>
+        <v>2312.282</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2681.73571</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2715.12693</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>7478.125</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>35.23809</v>
@@ -2693,109 +2819,124 @@
         <v>6.06033</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>0</v>
+        <v>1.20689</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>2.709</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>795.48562</v>
+        <v>814.5817200000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1130.8158</v>
+        <v>1178.37449</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1168.60597</v>
+        <v>1269.26085</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1098.21637</v>
+        <v>1137.58017</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>864.86366</v>
+        <v>886.4121700000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>885.4366000000001</v>
+        <v>890.18668</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>712.68156</v>
+        <v>820.02085</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1390.84878</v>
+        <v>1444.11025</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1903.97975</v>
+        <v>2115.70208</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2309.44553</v>
+        <v>2311.07511</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2681.28571</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2714.67693</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>7475.416</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>1122.7775</v>
+        <v>1143.97605</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1533.33076</v>
+        <v>1598.37085</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>9395.22514</v>
+        <v>12319.32267</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1464.60545</v>
+        <v>1638.79144</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1031.27849</v>
+        <v>1146.19505</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2944.86581</v>
+        <v>3171.73398</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>880.0548700000001</v>
+        <v>1174.71645</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>4769.16407</v>
+        <v>4912.09009</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1381.48097</v>
+        <v>1639.70744</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>3066.71949</v>
+        <v>3335.22138</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3204.81486</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3301.13157</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4600.783</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>10.71678</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>14.85144</v>
+        <v>38.86356</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>46.17055000000001</v>
+        <v>58.98545</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>4.69512</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>22.53838</v>
+        <v>120.72766</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>0.02321</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>72.90333</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>41.942</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>493.03113</v>
@@ -2828,7 +2974,7 @@
         <v>291.73414</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>177.47112</v>
+        <v>184.21754</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>200.83797</v>
@@ -2843,10 +2989,10 @@
         <v>57.91643</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>93.35702999999999</v>
+        <v>95.02477999999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>45.48911</v>
+        <v>47.66912</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>9.206329999999999</v>
@@ -2854,164 +3000,187 @@
       <c r="M53" s="48" t="n">
         <v>373.84723</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>70.26900000000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>619.0295900000001</v>
+        <v>640.2281400000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1226.74518</v>
+        <v>1267.77315</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>9171.583470000001</v>
+        <v>12076.11968</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1259.07236</v>
+        <v>1433.25835</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>602.44357</v>
+        <v>619.17085</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2838.2792</v>
+        <v>3065.14737</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>822.1384400000001</v>
+        <v>1116.80002</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>4675.80704</v>
+        <v>4817.06531</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1256.2889</v>
+        <v>1512.33536</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2908.09148</v>
+        <v>3176.59337</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2758.0643</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2854.38101</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4488.572</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-6179.61066</v>
+        <v>-5085.71233</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-6890.787350000001</v>
+        <v>-6211.314350000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-16652.01555</v>
+        <v>-19812.54887</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-12697.69509</v>
+        <v>-12868.00195</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-9074.193130000001</v>
+        <v>-9899.894319999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-10044.71051</v>
+        <v>-9723.044</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-8181.87451</v>
+        <v>-7341.746349999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-18297.85661</v>
+        <v>-17585.58324</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-15990.44616</v>
+        <v>-16005.65996</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-26068.42699</v>
+        <v>-27136.64787</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-26813.73049</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-30226.71376</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-22033.218</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1053.26833</v>
+        <v>1254.83617</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>714.83286</v>
+        <v>837.07637</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>846.30411</v>
+        <v>917.6592900000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>803.49556</v>
+        <v>882.09637</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>579.86594</v>
+        <v>740.1725799999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>707.936</v>
+        <v>794.66161</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>516.42507</v>
+        <v>719.1704199999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>727.3437299999999</v>
+        <v>858.3465</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>970.1201300000001</v>
+        <v>1049.74566</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1368.90317</v>
+        <v>1797.34113</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1769.91753</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2137.58641</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2708.435</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-7232.87899</v>
+        <v>-6340.5485</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-7605.62021</v>
+        <v>-7048.390719999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-17498.31966</v>
+        <v>-20730.20816000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-13501.19065</v>
+        <v>-13750.09832</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-9654.059070000001</v>
+        <v>-10640.0669</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-10752.64651</v>
+        <v>-10517.70561</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-8698.299580000001</v>
+        <v>-8060.91677</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-19025.20034</v>
+        <v>-18443.92974</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-16960.56629</v>
+        <v>-17055.40562</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-27437.33016</v>
+        <v>-28933.989</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-28583.64802</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-32364.30017</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-24741.653</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>790</v>
+        <v>814</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>819</v>
+        <v>886</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>954</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>